--- a/TC_Master.xlsx
+++ b/TC_Master.xlsx
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,7 +3898,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -3915,7 +3915,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -4624,9 +4624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2049"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
